--- a/data/evacuation_space/data (2).xlsx
+++ b/data/evacuation_space/data (2).xlsx
@@ -4107,7 +4107,7 @@
         <v>○</v>
       </c>
       <c r="P63" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q63" t="str">
         <v>1.8</v>
@@ -4166,7 +4166,7 @@
         <v>○</v>
       </c>
       <c r="P64" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q64" t="str">
         <v>1.5</v>
@@ -4225,7 +4225,7 @@
         <v>○</v>
       </c>
       <c r="P65" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q65" t="str">
         <v>2.8</v>
@@ -4284,7 +4284,7 @@
         <v>○</v>
       </c>
       <c r="P66" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q66" t="str">
         <v>2.5</v>
@@ -4343,7 +4343,7 @@
         <v>○</v>
       </c>
       <c r="P67" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q67" t="str">
         <v>7.7</v>
@@ -4402,7 +4402,7 @@
         <v>○</v>
       </c>
       <c r="P68" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q68" t="str">
         <v>1.7</v>
@@ -4461,7 +4461,7 @@
         <v>○</v>
       </c>
       <c r="P69" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q69" t="str">
         <v>1.5</v>
@@ -4520,7 +4520,7 @@
         <v>○</v>
       </c>
       <c r="P70" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q70" t="str">
         <v>1.6</v>
@@ -4579,7 +4579,7 @@
         <v>○</v>
       </c>
       <c r="P71" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q71" t="str">
         <v>2.2</v>
@@ -4638,7 +4638,7 @@
         <v>○</v>
       </c>
       <c r="P72" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q72" t="str">
         <v>18.4</v>
@@ -4697,7 +4697,7 @@
         <v>○</v>
       </c>
       <c r="P73" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q73" t="str">
         <v>8.8</v>
@@ -4756,7 +4756,7 @@
         <v>○</v>
       </c>
       <c r="P74" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q74" t="str">
         <v>23.1</v>
@@ -4815,7 +4815,7 @@
         <v>○</v>
       </c>
       <c r="P75" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q75" t="str">
         <v>8.4</v>
@@ -4874,7 +4874,7 @@
         <v>○</v>
       </c>
       <c r="P76" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q76" t="str">
         <v>20.6</v>
@@ -4933,7 +4933,7 @@
         <v>○</v>
       </c>
       <c r="P77" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q77" t="str">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>○</v>
       </c>
       <c r="P78" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q78" t="str">
         <v>3</v>
@@ -5051,7 +5051,7 @@
         <v>○</v>
       </c>
       <c r="P79" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q79" t="str">
         <v>2.9</v>
@@ -5110,7 +5110,7 @@
         <v>○</v>
       </c>
       <c r="P80" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q80" t="str">
         <v>2.4</v>
@@ -5169,7 +5169,7 @@
         <v>○</v>
       </c>
       <c r="P81" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q81" t="str">
         <v>2.2</v>
@@ -5228,7 +5228,7 @@
         <v>○</v>
       </c>
       <c r="P82" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q82" t="str">
         <v>3</v>
@@ -5287,7 +5287,7 @@
         <v>○</v>
       </c>
       <c r="P83" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q83" t="str">
         <v>10.5</v>
@@ -5346,7 +5346,7 @@
         <v>○</v>
       </c>
       <c r="P84" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q84" t="str">
         <v>13.5</v>
@@ -5405,7 +5405,7 @@
         <v>○</v>
       </c>
       <c r="P85" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q85" t="str">
         <v>8.6</v>
@@ -5464,7 +5464,7 @@
         <v>○</v>
       </c>
       <c r="P86" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q86" t="str">
         <v>13.2</v>
@@ -5523,7 +5523,7 @@
         <v>○</v>
       </c>
       <c r="P87" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q87" t="str">
         <v>26</v>
@@ -5582,7 +5582,7 @@
         <v>○</v>
       </c>
       <c r="P88" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q88" t="str">
         <v>36.6</v>
@@ -5641,7 +5641,7 @@
         <v>○</v>
       </c>
       <c r="P89" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q89" t="str">
         <v>26.9</v>
@@ -5700,7 +5700,7 @@
         <v>○</v>
       </c>
       <c r="P90" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q90" t="str">
         <v>33.9</v>
@@ -5759,7 +5759,7 @@
         <v>○</v>
       </c>
       <c r="P91" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q91" t="str">
         <v>38.1</v>
@@ -5818,7 +5818,7 @@
         <v>○</v>
       </c>
       <c r="P92" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q92" t="str">
         <v>52.5</v>
@@ -5877,7 +5877,7 @@
         <v>○</v>
       </c>
       <c r="P93" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q93" t="str">
         <v>24.1</v>
@@ -5936,7 +5936,7 @@
         <v>○</v>
       </c>
       <c r="P94" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q94" t="str">
         <v>7.1</v>
@@ -5995,7 +5995,7 @@
         <v>○</v>
       </c>
       <c r="P95" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q95" t="str">
         <v>12.8</v>
@@ -6054,7 +6054,7 @@
         <v>○</v>
       </c>
       <c r="P96" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q96" t="str">
         <v>3.6</v>
@@ -6113,7 +6113,7 @@
         <v>○</v>
       </c>
       <c r="P97" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q97" t="str">
         <v>24.2</v>
@@ -6172,7 +6172,7 @@
         <v>○</v>
       </c>
       <c r="P98" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q98" t="str">
         <v>7.7</v>
@@ -6231,7 +6231,7 @@
         <v>○</v>
       </c>
       <c r="P99" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q99" t="str">
         <v>2.4</v>
@@ -6290,7 +6290,7 @@
         <v>○</v>
       </c>
       <c r="P100" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q100" t="str">
         <v>21.2</v>
@@ -6349,7 +6349,7 @@
         <v>○</v>
       </c>
       <c r="P101" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q101" t="str">
         <v>41.8</v>
@@ -6408,7 +6408,7 @@
         <v>○</v>
       </c>
       <c r="P102" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q102" t="str">
         <v>51.8</v>
@@ -6998,7 +6998,7 @@
         <v>○</v>
       </c>
       <c r="P112" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q112" t="str">
         <v>13.6</v>
@@ -7293,7 +7293,7 @@
         <v>○</v>
       </c>
       <c r="P117" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q117" t="str">
         <v>3.3</v>
@@ -7588,7 +7588,7 @@
         <v>○</v>
       </c>
       <c r="P122" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q122" t="str">
         <v>56.5</v>
@@ -7765,7 +7765,7 @@
         <v>○</v>
       </c>
       <c r="P125" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q125" t="str">
         <v>64.6</v>
@@ -7883,7 +7883,7 @@
         <v>○</v>
       </c>
       <c r="P127" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q127" t="str">
         <v>87.1</v>
@@ -8178,7 +8178,7 @@
         <v>○</v>
       </c>
       <c r="P132" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q132" t="str">
         <v>179.3</v>
@@ -8355,7 +8355,7 @@
         <v>○</v>
       </c>
       <c r="P135" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q135" t="str">
         <v>82.1</v>
@@ -8532,7 +8532,7 @@
         <v>○</v>
       </c>
       <c r="P138" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q138" t="str">
         <v>139.4</v>
@@ -8591,7 +8591,7 @@
         <v>○</v>
       </c>
       <c r="P139" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q139" t="str">
         <v>137</v>
@@ -8768,7 +8768,7 @@
         <v>○</v>
       </c>
       <c r="P142" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q142" t="str">
         <v>215</v>
@@ -9004,7 +9004,7 @@
         <v>○</v>
       </c>
       <c r="P146" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q146" t="str">
         <v>266</v>
@@ -9240,7 +9240,7 @@
         <v>○</v>
       </c>
       <c r="P150" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q150" t="str">
         <v>26</v>
@@ -9594,7 +9594,7 @@
         <v>○</v>
       </c>
       <c r="P156" t="str">
-        <v>協働コミュニティ推進課</v>
+        <v>地域振興課</v>
       </c>
       <c r="Q156" t="str">
         <v>28.6</v>
